--- a/data/trans_orig/P6603-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6603-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>291669</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>276777</v>
+        <v>277719</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>305769</v>
+        <v>305491</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8218134558921384</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7798524061524774</v>
+        <v>0.7825081652681634</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8615411170751637</v>
+        <v>0.8607594626142816</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>189</v>
@@ -765,19 +765,19 @@
         <v>194484</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>183403</v>
+        <v>184178</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>202514</v>
+        <v>202308</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9005423115852483</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8492345207426845</v>
+        <v>0.8528215975720052</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9377248900163633</v>
+        <v>0.9367738612294554</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>471</v>
@@ -786,19 +786,19 @@
         <v>486153</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>469257</v>
+        <v>466840</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>503959</v>
+        <v>501909</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8515968555535004</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8219995661403831</v>
+        <v>0.8177657238233739</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.882788234274553</v>
+        <v>0.8791968880943964</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>40788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29333</v>
+        <v>29707</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53680</v>
+        <v>53965</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1149247557033906</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08265033818946818</v>
+        <v>0.08370301793501941</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1512494912359416</v>
+        <v>0.1520532033698077</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -836,19 +836,19 @@
         <v>14449</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8292</v>
+        <v>8300</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23831</v>
+        <v>23317</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06690286189087054</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03839333582386779</v>
+        <v>0.03843121464224424</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.110349848230262</v>
+        <v>0.1079653748130085</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>53</v>
@@ -857,19 +857,19 @@
         <v>55236</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40516</v>
+        <v>42448</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>69624</v>
+        <v>72081</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09675790641640235</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07097173567399283</v>
+        <v>0.07435554862220924</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1219610395860335</v>
+        <v>0.1262649109846841</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>15096</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8769</v>
+        <v>8726</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23449</v>
+        <v>23548</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04253589260693717</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02470803287309607</v>
+        <v>0.02458631524336369</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06606979966392919</v>
+        <v>0.06634883103552769</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -907,19 +907,19 @@
         <v>5853</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1946</v>
+        <v>2037</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13551</v>
+        <v>13356</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02710112927336249</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009009619470461713</v>
+        <v>0.009430170791191093</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06274833643994769</v>
+        <v>0.06184384722552698</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -928,19 +928,19 @@
         <v>20949</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13037</v>
+        <v>13554</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>30848</v>
+        <v>31943</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03669686800794731</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02283767269901088</v>
+        <v>0.02374272203174458</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05403686596591731</v>
+        <v>0.05595486038303019</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>7356</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3000</v>
+        <v>3026</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15082</v>
+        <v>14426</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02072589579753389</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008452195521256369</v>
+        <v>0.008525668105620242</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04249458030489171</v>
+        <v>0.04064673839499924</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5573</v>
+        <v>5950</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005453697250518604</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02580666312890875</v>
+        <v>0.02755305465456519</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -999,19 +999,19 @@
         <v>8534</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4091</v>
+        <v>3913</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17388</v>
+        <v>15909</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0149483700221499</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007166150649501047</v>
+        <v>0.006853676355709678</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03045847824397859</v>
+        <v>0.02786859506639811</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>231299</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>216457</v>
+        <v>217597</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>242930</v>
+        <v>242967</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8569489459213759</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8019595270998578</v>
+        <v>0.8061843740102392</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9000403021050232</v>
+        <v>0.9001795993550503</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>219</v>
@@ -1124,19 +1124,19 @@
         <v>222026</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>214727</v>
+        <v>214122</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>226951</v>
+        <v>227146</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9572081061671284</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.9257393473829355</v>
+        <v>0.9231311894391994</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9784415942223686</v>
+        <v>0.9792804057560233</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>441</v>
@@ -1145,19 +1145,19 @@
         <v>453325</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>436826</v>
+        <v>437503</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>465699</v>
+        <v>466125</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9032870387203186</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8704107551055653</v>
+        <v>0.8717588192371398</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9279415731262091</v>
+        <v>0.9287917238911557</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>22430</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13783</v>
+        <v>13976</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35450</v>
+        <v>36081</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08309993579162082</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05106603106848721</v>
+        <v>0.05178049515538092</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1313404027329209</v>
+        <v>0.1336786622705737</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1195,19 +1195,19 @@
         <v>4791</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1805</v>
+        <v>1474</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11295</v>
+        <v>10971</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02065409565378854</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007781647663026948</v>
+        <v>0.006354520173026112</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04869342465456059</v>
+        <v>0.04729929294805776</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -1216,19 +1216,19 @@
         <v>27220</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18414</v>
+        <v>17625</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41215</v>
+        <v>39410</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05423852175102797</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03669145498441064</v>
+        <v>0.03511973435355092</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08212443599941699</v>
+        <v>0.07852693313405054</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>9959</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4382</v>
+        <v>4648</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19501</v>
+        <v>18998</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03689827843914231</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0162337813559889</v>
+        <v>0.01722125205127305</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0722481920652045</v>
+        <v>0.07038599851248035</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1266,19 +1266,19 @@
         <v>5135</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1921</v>
+        <v>1882</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11081</v>
+        <v>11640</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02213779817908313</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.008279772106151889</v>
+        <v>0.008111655286479683</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04777449471797041</v>
+        <v>0.0501817597673918</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -1287,19 +1287,19 @@
         <v>15094</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8425</v>
+        <v>8375</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>25960</v>
+        <v>25372</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03007623342728455</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01678820164628018</v>
+        <v>0.01668747608537364</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05172827085046168</v>
+        <v>0.05055531373659382</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>6222</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1847</v>
+        <v>2625</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13131</v>
+        <v>13339</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02305283984786095</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00684204725540297</v>
+        <v>0.009723757599388934</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04864774578736974</v>
+        <v>0.0494204376632299</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1350,19 +1350,19 @@
         <v>6222</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2606</v>
+        <v>2689</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13061</v>
+        <v>13741</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01239820610136895</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.005192431435113658</v>
+        <v>0.005358705957951772</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02602534497298316</v>
+        <v>0.02737992098813521</v>
       </c>
     </row>
     <row r="13">
@@ -1454,19 +1454,19 @@
         <v>224012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>203564</v>
+        <v>205707</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>241664</v>
+        <v>242567</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5894660979349351</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5356587375020654</v>
+        <v>0.5412982162517461</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6359134316156827</v>
+        <v>0.6382909872501791</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>35</v>
@@ -1475,19 +1475,19 @@
         <v>36719</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29741</v>
+        <v>29041</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43415</v>
+        <v>43326</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6462779169678494</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5234639547940385</v>
+        <v>0.5111351674860322</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7641316474800891</v>
+        <v>0.7625661037760336</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>249</v>
@@ -1496,19 +1496,19 @@
         <v>260731</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>238771</v>
+        <v>240154</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>281352</v>
+        <v>281005</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5968550886435894</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5465839285415264</v>
+        <v>0.5497510597452638</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6440597836417896</v>
+        <v>0.6432657066902916</v>
       </c>
     </row>
     <row r="15">
@@ -1525,19 +1525,19 @@
         <v>82411</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>67045</v>
+        <v>66913</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>100894</v>
+        <v>97266</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2168553678816116</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1764230945996847</v>
+        <v>0.1760751751805394</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2654930252050853</v>
+        <v>0.2559446538798103</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -1546,19 +1546,19 @@
         <v>9039</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4176</v>
+        <v>4472</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>15448</v>
+        <v>16165</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1590919889911898</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07349244028731981</v>
+        <v>0.07871181139047104</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2718874471123974</v>
+        <v>0.284515857123906</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>89</v>
@@ -1567,19 +1567,19 @@
         <v>91450</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>75565</v>
+        <v>75234</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>109124</v>
+        <v>109946</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2093426165353728</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1729801055851223</v>
+        <v>0.1722229651996866</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2498016221701025</v>
+        <v>0.2516826239475081</v>
       </c>
     </row>
     <row r="16">
@@ -1596,19 +1596,19 @@
         <v>49559</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37297</v>
+        <v>37678</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63508</v>
+        <v>64431</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1304087409387963</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09814404689927048</v>
+        <v>0.09914513258714586</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1671161463864377</v>
+        <v>0.1695440372586856</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1617,19 +1617,19 @@
         <v>10058</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5365</v>
+        <v>5060</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16497</v>
+        <v>16046</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1770259233013924</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09442772723801197</v>
+        <v>0.08906414086620076</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2903637936262884</v>
+        <v>0.2824143110125779</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>60</v>
@@ -1638,19 +1638,19 @@
         <v>59617</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46551</v>
+        <v>46479</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>73851</v>
+        <v>73136</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1364718090328016</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1065630897143796</v>
+        <v>0.1063977506234065</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1690556741532921</v>
+        <v>0.1674198958311845</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>24044</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15072</v>
+        <v>14988</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37969</v>
+        <v>35018</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06326979324465694</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03965914776745311</v>
+        <v>0.03943853287318945</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09991210723413124</v>
+        <v>0.09214562066817608</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5076</v>
+        <v>5093</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01760417073956836</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08933378798546407</v>
+        <v>0.08963260916909399</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -1709,19 +1709,19 @@
         <v>25044</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16725</v>
+        <v>16652</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37681</v>
+        <v>35658</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05733048578823621</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.038287064865368</v>
+        <v>0.03811990679305592</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08625706899475556</v>
+        <v>0.08162655746939211</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>446111</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>418489</v>
+        <v>421277</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>471289</v>
+        <v>471634</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6332487947068894</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5940401042658554</v>
+        <v>0.5979978119652355</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6689887286539231</v>
+        <v>0.669477882311685</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>251</v>
@@ -1834,19 +1834,19 @@
         <v>266161</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>253317</v>
+        <v>252873</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>277407</v>
+        <v>277010</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8735698087102415</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8314152069039477</v>
+        <v>0.8299579573292145</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9104807382098152</v>
+        <v>0.9091768715108653</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>681</v>
@@ -1855,19 +1855,19 @@
         <v>712272</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>681285</v>
+        <v>681709</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>740094</v>
+        <v>739079</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7058054054903344</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6751001610780876</v>
+        <v>0.675520123178101</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.733374614224561</v>
+        <v>0.7323690382045934</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>136446</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>115938</v>
+        <v>115937</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>158594</v>
+        <v>160620</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1936829475888418</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1645719868089242</v>
+        <v>0.1645715460079251</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2251223618443065</v>
+        <v>0.2279984753990284</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -1905,19 +1905,19 @@
         <v>27680</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18320</v>
+        <v>18629</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38868</v>
+        <v>39067</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09084952283463901</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06012793354585572</v>
+        <v>0.06114125948503576</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1275679764789555</v>
+        <v>0.1282209672317877</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>156</v>
@@ -1926,19 +1926,19 @@
         <v>164126</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>141424</v>
+        <v>140695</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>190950</v>
+        <v>187467</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1626359548555501</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.140139994681054</v>
+        <v>0.1394178068183181</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1892165890313084</v>
+        <v>0.185764640816285</v>
       </c>
     </row>
     <row r="21">
@@ -1955,19 +1955,19 @@
         <v>92187</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>75253</v>
+        <v>74789</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>110607</v>
+        <v>111048</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1308583949918677</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1068211789067456</v>
+        <v>0.1061622208216734</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1570046493563913</v>
+        <v>0.1576311764541303</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1976,19 +1976,19 @@
         <v>8677</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3982</v>
+        <v>3889</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17503</v>
+        <v>17412</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02848017813958088</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01306857638265622</v>
+        <v>0.01276461333769818</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05744713850597689</v>
+        <v>0.05714915446328993</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>98</v>
@@ -1997,19 +1997,19 @@
         <v>100865</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>82401</v>
+        <v>82413</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>122071</v>
+        <v>121744</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09994883652624437</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08165307197725374</v>
+        <v>0.08166462295643084</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1209625070333748</v>
+        <v>0.1206391051221436</v>
       </c>
     </row>
     <row r="22">
@@ -2026,19 +2026,19 @@
         <v>29736</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20729</v>
+        <v>19628</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43265</v>
+        <v>42677</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04220986271240095</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0294241786493249</v>
+        <v>0.02786189068642077</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06141362196693308</v>
+        <v>0.06057910758629839</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6648</v>
+        <v>6592</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.007100490315538572</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02181863424207607</v>
+        <v>0.02163703883693135</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -2068,19 +2068,19 @@
         <v>31899</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21285</v>
+        <v>21142</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>43168</v>
+        <v>45092</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03160980312787108</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02109128169119911</v>
+        <v>0.02095013242212019</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04277607331553882</v>
+        <v>0.04468220612554475</v>
       </c>
     </row>
     <row r="23">
@@ -2172,19 +2172,19 @@
         <v>99203</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>85241</v>
+        <v>86230</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>113000</v>
+        <v>113863</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5360349160432449</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4605889958571558</v>
+        <v>0.4659339740863325</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.610583932817697</v>
+        <v>0.615246380592947</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>133</v>
@@ -2193,19 +2193,19 @@
         <v>144777</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>130607</v>
+        <v>130602</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>157952</v>
+        <v>158056</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6850621727107756</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6180104263208041</v>
+        <v>0.6179871479906462</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7474032346726096</v>
+        <v>0.7478954843936674</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>223</v>
@@ -2214,19 +2214,19 @@
         <v>243980</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>222226</v>
+        <v>224068</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>265495</v>
+        <v>264423</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.615485790784679</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5606072221288247</v>
+        <v>0.5652525649037016</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6697603487125857</v>
+        <v>0.6670549385182964</v>
       </c>
     </row>
     <row r="25">
@@ -2243,19 +2243,19 @@
         <v>35997</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26039</v>
+        <v>25946</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48432</v>
+        <v>48835</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1945074539535041</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1406977620404418</v>
+        <v>0.1401987495966779</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.261694471199084</v>
+        <v>0.2638751862773022</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -2264,19 +2264,19 @@
         <v>42287</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31147</v>
+        <v>31424</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>55098</v>
+        <v>55162</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2000942789379082</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1473815686432637</v>
+        <v>0.1486937417996523</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2607160217058158</v>
+        <v>0.2610200133047065</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>72</v>
@@ -2285,19 +2285,19 @@
         <v>78284</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>60859</v>
+        <v>60799</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>96042</v>
+        <v>96084</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1974859569600277</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1535284231152717</v>
+        <v>0.1533772330105053</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2422845505314334</v>
+        <v>0.2423897009551652</v>
       </c>
     </row>
     <row r="26">
@@ -2314,19 +2314,19 @@
         <v>39436</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>29087</v>
+        <v>28327</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>53201</v>
+        <v>50958</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2130885095212158</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1571687849650044</v>
+        <v>0.1530617796445216</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2874650982267687</v>
+        <v>0.2753463810879154</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -2335,19 +2335,19 @@
         <v>14598</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8278</v>
+        <v>8093</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23757</v>
+        <v>22954</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06907314987180012</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03916828965921312</v>
+        <v>0.03829480633539534</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1124149427149052</v>
+        <v>0.1086144307180345</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>53</v>
@@ -2356,19 +2356,19 @@
         <v>54034</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>41216</v>
+        <v>42380</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>68882</v>
+        <v>70379</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.136309626542279</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1039747302333422</v>
+        <v>0.1069103499309169</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1737683058393935</v>
+        <v>0.177542841398546</v>
       </c>
     </row>
     <row r="27">
@@ -2385,19 +2385,19 @@
         <v>10432</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5141</v>
+        <v>5185</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>19213</v>
+        <v>18881</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05636912048203522</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0277770900911385</v>
+        <v>0.02801675627988278</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1038153391983873</v>
+        <v>0.1020230052912542</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>9</v>
@@ -2406,19 +2406,19 @@
         <v>9673</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4295</v>
+        <v>4496</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>18053</v>
+        <v>17840</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0457703984795161</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02032511982299699</v>
+        <v>0.02127566676559324</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08542588033391868</v>
+        <v>0.0844139574742957</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>19</v>
@@ -2427,19 +2427,19 @@
         <v>20105</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>11785</v>
+        <v>12682</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>30872</v>
+        <v>31501</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05071862571301424</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02972883422468778</v>
+        <v>0.03199151669806182</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07787985592162462</v>
+        <v>0.07946767546141684</v>
       </c>
     </row>
     <row r="28">
@@ -2531,19 +2531,19 @@
         <v>1292295</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1253825</v>
+        <v>1252855</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1330999</v>
+        <v>1332462</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6821680785617441</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6618605423029927</v>
+        <v>0.6613486934326465</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7025989866070727</v>
+        <v>0.7033713581294743</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>827</v>
@@ -2552,19 +2552,19 @@
         <v>864167</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>838233</v>
+        <v>839348</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>884585</v>
+        <v>884422</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8466024851142221</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8211955966506009</v>
+        <v>0.8222876697492165</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8666050771469627</v>
+        <v>0.8664459262504839</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2065</v>
@@ -2573,19 +2573,19 @@
         <v>2156462</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2099833</v>
+        <v>2106202</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2202470</v>
+        <v>2203331</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7397453719332318</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7203195552054554</v>
+        <v>0.7225044163633901</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7555279317019842</v>
+        <v>0.755823014754178</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>318071</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>288206</v>
+        <v>284549</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>351452</v>
+        <v>350795</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1679012193394515</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1521363160244973</v>
+        <v>0.1502058564818727</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.185522194599768</v>
+        <v>0.185175106634387</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>94</v>
@@ -2623,19 +2623,19 @@
         <v>98245</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>81513</v>
+        <v>81044</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>121672</v>
+        <v>117151</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09624837671489031</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07985596084748335</v>
+        <v>0.0793963101366785</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1191985973678507</v>
+        <v>0.1147695152845639</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>394</v>
@@ -2644,19 +2644,19 @@
         <v>416316</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>378957</v>
+        <v>381194</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>459495</v>
+        <v>455811</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1428117211791091</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1299960227490862</v>
+        <v>0.1307635575997151</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1576235759336808</v>
+        <v>0.1563599239760161</v>
       </c>
     </row>
     <row r="31">
@@ -2673,19 +2673,19 @@
         <v>206237</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>180050</v>
+        <v>182563</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>235700</v>
+        <v>235796</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1088672607834142</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09504359528192999</v>
+        <v>0.09637021471120637</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1244195361691803</v>
+        <v>0.1244701693104378</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>42</v>
@@ -2694,19 +2694,19 @@
         <v>44321</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>31859</v>
+        <v>32538</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>59273</v>
+        <v>59083</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04341973838716148</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03121127770362351</v>
+        <v>0.03187650811645965</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05806802007061768</v>
+        <v>0.05788200190408468</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>245</v>
@@ -2715,19 +2715,19 @@
         <v>250558</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>223050</v>
+        <v>217771</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>283261</v>
+        <v>282679</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08595057761197936</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07651447890868923</v>
+        <v>0.07470356079666093</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09716895736463156</v>
+        <v>0.09696922251354732</v>
       </c>
     </row>
     <row r="32">
@@ -2744,19 +2744,19 @@
         <v>77790</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>60469</v>
+        <v>60454</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>96797</v>
+        <v>96630</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04106344131539019</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03191977281616239</v>
+        <v>0.03191186766190767</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05109671241998776</v>
+        <v>0.05100834611397033</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -2765,19 +2765,19 @@
         <v>14014</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8428</v>
+        <v>7992</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>24456</v>
+        <v>23523</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0137293997837261</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008256866811112909</v>
+        <v>0.007829301906188711</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02395930156050871</v>
+        <v>0.02304532362007075</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>85</v>
@@ -2786,19 +2786,19 @@
         <v>91805</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>75738</v>
+        <v>72644</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>115400</v>
+        <v>113674</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03149232927567984</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02598087698105931</v>
+        <v>0.02491952561734063</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03958658160806674</v>
+        <v>0.03899427602542878</v>
       </c>
     </row>
     <row r="33">
@@ -3131,19 +3131,19 @@
         <v>215332</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>197688</v>
+        <v>198850</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>231411</v>
+        <v>230472</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7111303652351848</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6528587074054635</v>
+        <v>0.6566964633677316</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7642298948925508</v>
+        <v>0.7611276344632745</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>148</v>
@@ -3152,19 +3152,19 @@
         <v>163727</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>151557</v>
+        <v>152035</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>172957</v>
+        <v>173745</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8465024150572994</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7835825105565791</v>
+        <v>0.78605129970794</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.894224218335876</v>
+        <v>0.8982969394715759</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>351</v>
@@ -3173,19 +3173,19 @@
         <v>379060</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>358795</v>
+        <v>357067</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>396685</v>
+        <v>397623</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7638957040958708</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7230581067278213</v>
+        <v>0.7195756995741649</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7994159753471872</v>
+        <v>0.8013053736809478</v>
       </c>
     </row>
     <row r="5">
@@ -3202,19 +3202,19 @@
         <v>59868</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>46235</v>
+        <v>46064</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>74900</v>
+        <v>74143</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1977120220072288</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.152690465223143</v>
+        <v>0.1521240696508331</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2473571088084093</v>
+        <v>0.2448548277099002</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -3223,19 +3223,19 @@
         <v>19065</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11505</v>
+        <v>10910</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29725</v>
+        <v>28811</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09856832824746409</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05948527534487634</v>
+        <v>0.0564090814679493</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1536837096071731</v>
+        <v>0.1489581361373903</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>74</v>
@@ -3244,19 +3244,19 @@
         <v>78932</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>64137</v>
+        <v>62503</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96306</v>
+        <v>98200</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1590677774677665</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1292520493357352</v>
+        <v>0.1259593915043648</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1940788484420108</v>
+        <v>0.1978958246912024</v>
       </c>
     </row>
     <row r="6">
@@ -3273,19 +3273,19 @@
         <v>19501</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11225</v>
+        <v>11194</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31496</v>
+        <v>31740</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0644029192962549</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03707144758960833</v>
+        <v>0.03696708696616892</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1040163407971036</v>
+        <v>0.1048192188984967</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -3294,19 +3294,19 @@
         <v>9605</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4976</v>
+        <v>4676</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18539</v>
+        <v>17514</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04965940384713487</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02572875719189349</v>
+        <v>0.02417438086544604</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09585066270072633</v>
+        <v>0.09055271482310369</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -3315,19 +3315,19 @@
         <v>29106</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19585</v>
+        <v>18899</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>43120</v>
+        <v>43258</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05865618952675788</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03946861147655543</v>
+        <v>0.03808692276917269</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08689806778509021</v>
+        <v>0.08717556699050098</v>
       </c>
     </row>
     <row r="7">
@@ -3344,19 +3344,19 @@
         <v>8101</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3142</v>
+        <v>3867</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16735</v>
+        <v>16251</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02675469346133156</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01037633823216189</v>
+        <v>0.0127704385974004</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05526677195605278</v>
+        <v>0.05366717616578227</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6043</v>
+        <v>4292</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00526985284810167</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03124323143797871</v>
+        <v>0.02219143397098102</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -3386,19 +3386,19 @@
         <v>9121</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4039</v>
+        <v>4108</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18490</v>
+        <v>18299</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0183803289096048</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008140197264728593</v>
+        <v>0.008279460660027474</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03726136031469141</v>
+        <v>0.03687590214180385</v>
       </c>
     </row>
     <row r="8">
@@ -3490,19 +3490,19 @@
         <v>192003</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>175818</v>
+        <v>175447</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>206316</v>
+        <v>206915</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7484691335333259</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6853761442248379</v>
+        <v>0.6839291779649956</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8042637918443665</v>
+        <v>0.8065989996251122</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>136</v>
@@ -3511,19 +3511,19 @@
         <v>149174</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>138631</v>
+        <v>139280</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>156039</v>
+        <v>155864</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8990820371102523</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8355406046002295</v>
+        <v>0.8394527759034107</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.940456387342212</v>
+        <v>0.9394018983784389</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>309</v>
@@ -3532,19 +3532,19 @@
         <v>341177</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>323262</v>
+        <v>323149</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>357991</v>
+        <v>358654</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.80762319843009</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.765215726780436</v>
+        <v>0.7649468621607</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8474232626499063</v>
+        <v>0.8489930392065544</v>
       </c>
     </row>
     <row r="10">
@@ -3561,19 +3561,19 @@
         <v>45902</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33155</v>
+        <v>33245</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59102</v>
+        <v>61277</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1789362808835345</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1292455011510861</v>
+        <v>0.1295941062846884</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2303932563622075</v>
+        <v>0.2388704981734008</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3582,19 +3582,19 @@
         <v>11826</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6203</v>
+        <v>6139</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20824</v>
+        <v>20606</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07127657670072439</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0373832222888674</v>
+        <v>0.03700087466590492</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1255094501950334</v>
+        <v>0.1241946416673879</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -3603,19 +3603,19 @@
         <v>57728</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44119</v>
+        <v>44222</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>74748</v>
+        <v>73034</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1366523266090348</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1044360387229936</v>
+        <v>0.1046808015726174</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1769420721973776</v>
+        <v>0.1728838090309261</v>
       </c>
     </row>
     <row r="11">
@@ -3632,19 +3632,19 @@
         <v>9882</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4232</v>
+        <v>4188</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19800</v>
+        <v>19613</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03852155579608955</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01649619504246797</v>
+        <v>0.01632474401580637</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07718317154463208</v>
+        <v>0.07645622304623231</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7295</v>
+        <v>8159</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01225398171081864</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04396937965065193</v>
+        <v>0.04917578219433582</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -3674,19 +3674,19 @@
         <v>11915</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6036</v>
+        <v>5948</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21383</v>
+        <v>21286</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02820481835050245</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01428835019289719</v>
+        <v>0.01407991242465761</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05061779638873893</v>
+        <v>0.05038732060408416</v>
       </c>
     </row>
     <row r="12">
@@ -3703,19 +3703,19 @@
         <v>8741</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3881</v>
+        <v>3823</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18099</v>
+        <v>18252</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03407302978705005</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01512823614211166</v>
+        <v>0.0149042083059586</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07055438100950949</v>
+        <v>0.07114931611776709</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10431</v>
+        <v>10439</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01738740447820477</v>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06286722209202507</v>
+        <v>0.0629181680184769</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -3745,19 +3745,19 @@
         <v>11626</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5722</v>
+        <v>5725</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22229</v>
+        <v>21648</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02751965661037269</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01354423590147115</v>
+        <v>0.01355303490340842</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05261864412597123</v>
+        <v>0.05124326355303947</v>
       </c>
     </row>
     <row r="13">
@@ -3849,19 +3849,19 @@
         <v>128130</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>111984</v>
+        <v>113560</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>144084</v>
+        <v>144964</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4595629300557128</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4016527168268458</v>
+        <v>0.4073048753672416</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5167841250185692</v>
+        <v>0.5199399870365482</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -3870,19 +3870,19 @@
         <v>76622</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65754</v>
+        <v>66106</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>85232</v>
+        <v>85573</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6916003422863205</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5935101520007794</v>
+        <v>0.5966816431110138</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7693221223850383</v>
+        <v>0.7723929205643288</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>199</v>
@@ -3891,19 +3891,19 @@
         <v>204752</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>184769</v>
+        <v>185847</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>224884</v>
+        <v>225319</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5255469464345827</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4742563779130317</v>
+        <v>0.4770215804913436</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5772218794366109</v>
+        <v>0.5783377240069724</v>
       </c>
     </row>
     <row r="15">
@@ -3920,19 +3920,19 @@
         <v>65090</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>53324</v>
+        <v>51682</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>79544</v>
+        <v>79668</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2334564746304441</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.191255652198234</v>
+        <v>0.1853654274851594</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2852980968706543</v>
+        <v>0.2857430552536157</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>16</v>
@@ -3941,19 +3941,19 @@
         <v>16348</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>10203</v>
+        <v>10083</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>25114</v>
+        <v>24714</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1475600435734356</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09208982472740723</v>
+        <v>0.09101231054922221</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2266875098134892</v>
+        <v>0.2230736871846306</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>81</v>
@@ -3962,19 +3962,19 @@
         <v>81438</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>66497</v>
+        <v>66748</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>96801</v>
+        <v>98451</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2090302777544022</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1706807910235029</v>
+        <v>0.1713249316104682</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2484637070036011</v>
+        <v>0.2526980202329082</v>
       </c>
     </row>
     <row r="16">
@@ -3991,19 +3991,19 @@
         <v>55918</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41442</v>
+        <v>42205</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>69365</v>
+        <v>70543</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2005594430278126</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1486409318282925</v>
+        <v>0.1513758509384985</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2487888467088278</v>
+        <v>0.2530172374105612</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -4012,19 +4012,19 @@
         <v>11488</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6175</v>
+        <v>5485</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20618</v>
+        <v>18794</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1036962487881826</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05573904644158203</v>
+        <v>0.04951035527833936</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.186101296379587</v>
+        <v>0.1696397387999118</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -4033,19 +4033,19 @@
         <v>67406</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52921</v>
+        <v>52845</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>82401</v>
+        <v>82523</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1730146495663799</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1358354449594199</v>
+        <v>0.1356388978971373</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2115036383092669</v>
+        <v>0.2118152956175032</v>
       </c>
     </row>
     <row r="17">
@@ -4062,19 +4062,19 @@
         <v>29671</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20403</v>
+        <v>20412</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42792</v>
+        <v>41724</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1064211522860305</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07317857213055125</v>
+        <v>0.07321089324217403</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1534817947229047</v>
+        <v>0.1496516258903984</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -4083,19 +4083,19 @@
         <v>6331</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2324</v>
+        <v>2356</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12961</v>
+        <v>12761</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05714336535206126</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02098115316498638</v>
+        <v>0.02126990821786882</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1169883707230214</v>
+        <v>0.1151799958335362</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>33</v>
@@ -4104,19 +4104,19 @@
         <v>36002</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25774</v>
+        <v>25055</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50020</v>
+        <v>48983</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09240812624463517</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06615576253992529</v>
+        <v>0.06430886333626994</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1283886012837322</v>
+        <v>0.1257278308428371</v>
       </c>
     </row>
     <row r="18">
@@ -4208,19 +4208,19 @@
         <v>224297</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>204740</v>
+        <v>203884</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>244674</v>
+        <v>246100</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5329109536079043</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4864449340536778</v>
+        <v>0.4844124804665738</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5813251062400084</v>
+        <v>0.5847134867664695</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>221</v>
@@ -4229,19 +4229,19 @@
         <v>234381</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>218027</v>
+        <v>218509</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>247027</v>
+        <v>248081</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7817147821961439</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7271721213801712</v>
+        <v>0.7287793133117445</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8238935202225932</v>
+        <v>0.8274086530241909</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>433</v>
@@ -4250,19 +4250,19 @@
         <v>458678</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>432572</v>
+        <v>432725</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>483622</v>
+        <v>483233</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6364166450359825</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6001955058736385</v>
+        <v>0.600407342779722</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.671027457089668</v>
+        <v>0.6704872618721195</v>
       </c>
     </row>
     <row r="20">
@@ -4279,19 +4279,19 @@
         <v>116429</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>98687</v>
+        <v>97942</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>136127</v>
+        <v>137141</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2766254823158348</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2344715872927307</v>
+        <v>0.2327026610372358</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3234268616168972</v>
+        <v>0.3258347381226646</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -4300,19 +4300,19 @@
         <v>38048</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28898</v>
+        <v>27334</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>50931</v>
+        <v>50031</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1268988416228891</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09638191006621981</v>
+        <v>0.09116384366677199</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1698666459190454</v>
+        <v>0.1668647029976165</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>142</v>
@@ -4321,19 +4321,19 @@
         <v>154477</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>132601</v>
+        <v>132029</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>178301</v>
+        <v>178153</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2143372146550722</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1839837682612195</v>
+        <v>0.1831907365120883</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2473927417036499</v>
+        <v>0.2471882972306953</v>
       </c>
     </row>
     <row r="21">
@@ -4350,19 +4350,19 @@
         <v>49706</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>37497</v>
+        <v>36539</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>64380</v>
+        <v>63985</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1180974831520925</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08908998458041748</v>
+        <v>0.08681395124758057</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1529611493320886</v>
+        <v>0.1520232989933915</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -4371,19 +4371,19 @@
         <v>13793</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7113</v>
+        <v>7012</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>24145</v>
+        <v>22560</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04600185955383215</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02372502244331073</v>
+        <v>0.02338737172418097</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08053088232169572</v>
+        <v>0.07524185155487087</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>60</v>
@@ -4392,19 +4392,19 @@
         <v>63499</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>49271</v>
+        <v>49289</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>81002</v>
+        <v>81639</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08810474786413905</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06836333640741035</v>
+        <v>0.06838860319083531</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1123911915576963</v>
+        <v>0.1132743970614503</v>
       </c>
     </row>
     <row r="22">
@@ -4421,19 +4421,19 @@
         <v>30458</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20972</v>
+        <v>20485</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41927</v>
+        <v>42087</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07236608092416841</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04982847742866506</v>
+        <v>0.04866954283203137</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09961524677032901</v>
+        <v>0.09999612796878593</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -4442,19 +4442,19 @@
         <v>13608</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8046</v>
+        <v>7819</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23178</v>
+        <v>23538</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04538451662713485</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02683641792644086</v>
+        <v>0.02607944238844105</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07730407409318385</v>
+        <v>0.07850563803829858</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -4463,19 +4463,19 @@
         <v>44066</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31930</v>
+        <v>32518</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58468</v>
+        <v>58526</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06114139244480626</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04430327315742763</v>
+        <v>0.04511883248041531</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.081124036811627</v>
+        <v>0.08120489209111768</v>
       </c>
     </row>
     <row r="23">
@@ -4567,19 +4567,19 @@
         <v>58057</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>47156</v>
+        <v>46253</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>72900</v>
+        <v>71024</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3797334638623452</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3084333669856404</v>
+        <v>0.3025308598948609</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4768187468403102</v>
+        <v>0.4645476705194029</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>100</v>
@@ -4588,19 +4588,19 @@
         <v>110484</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>97058</v>
+        <v>96887</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>122817</v>
+        <v>123599</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6357864436481335</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5585267707845877</v>
+        <v>0.5575431989978986</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7067585090098832</v>
+        <v>0.7112563068911741</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>157</v>
@@ -4609,19 +4609,19 @@
         <v>168540</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>151707</v>
+        <v>149617</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>188644</v>
+        <v>186593</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.515945911382874</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4644145206517551</v>
+        <v>0.4580170860524647</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5774875987899495</v>
+        <v>0.5712080900438264</v>
       </c>
     </row>
     <row r="25">
@@ -4638,19 +4638,19 @@
         <v>40823</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30207</v>
+        <v>31388</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52098</v>
+        <v>52905</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2670098293314391</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1975782452251235</v>
+        <v>0.2052989509547594</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3407609479133243</v>
+        <v>0.3460391945214824</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>41</v>
@@ -4659,19 +4659,19 @@
         <v>44668</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33121</v>
+        <v>33174</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>57131</v>
+        <v>56352</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2570466515184246</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1905958857975969</v>
+        <v>0.1909036091175615</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3287666462500224</v>
+        <v>0.3242825185428049</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>79</v>
@@ -4680,19 +4680,19 @@
         <v>85491</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>68866</v>
+        <v>69442</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>100824</v>
+        <v>103531</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2617097198145403</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2108172908553539</v>
+        <v>0.2125813762549865</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3086478420223496</v>
+        <v>0.3169346788460052</v>
       </c>
     </row>
     <row r="26">
@@ -4709,19 +4709,19 @@
         <v>31697</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>22738</v>
+        <v>23199</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>42744</v>
+        <v>43809</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2073206168691697</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1487218766960843</v>
+        <v>0.1517410253502038</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2795767774311415</v>
+        <v>0.2865409962674256</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -4730,19 +4730,19 @@
         <v>12493</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6383</v>
+        <v>6582</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21169</v>
+        <v>21589</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07189190447697738</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03673047897491698</v>
+        <v>0.0378737555707379</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1218185193752153</v>
+        <v>0.1242342819188016</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>41</v>
@@ -4751,19 +4751,19 @@
         <v>44190</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>32586</v>
+        <v>32188</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>57946</v>
+        <v>58222</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1352766344287898</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09975483231057862</v>
+        <v>0.09853433482849239</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1773875154872934</v>
+        <v>0.1782339895873656</v>
       </c>
     </row>
     <row r="27">
@@ -4780,19 +4780,19 @@
         <v>22312</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13656</v>
+        <v>13928</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>31924</v>
+        <v>32669</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1459360899370461</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08932344276803589</v>
+        <v>0.09109651374261898</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.208803506058552</v>
+        <v>0.2136775702412112</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -4801,19 +4801,19 @@
         <v>6130</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2868</v>
+        <v>2155</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>13173</v>
+        <v>13188</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03527500035646446</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01650526354815393</v>
+        <v>0.0124014989688579</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07580368214073459</v>
+        <v>0.07589144419257908</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>25</v>
@@ -4822,19 +4822,19 @@
         <v>28442</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>19441</v>
+        <v>18237</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>41424</v>
+        <v>39881</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.08706773437379582</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05951403763162447</v>
+        <v>0.05582680603532066</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1268103908729143</v>
+        <v>0.1220858823529522</v>
       </c>
     </row>
     <row r="28">
@@ -4926,19 +4926,19 @@
         <v>817820</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>781139</v>
+        <v>779142</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>855710</v>
+        <v>853512</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5792259402452692</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5532465650161104</v>
+        <v>0.5518325780863512</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6060618795632157</v>
+        <v>0.6045053243847108</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>677</v>
@@ -4947,19 +4947,19 @@
         <v>734387</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>708038</v>
+        <v>708398</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>760705</v>
+        <v>760736</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7781776981669671</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7502576896212807</v>
+        <v>0.7506383582225181</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8060650675893338</v>
+        <v>0.8060975911998107</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1449</v>
@@ -4968,19 +4968,19 @@
         <v>1552207</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1502176</v>
+        <v>1499981</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1597102</v>
+        <v>1596789</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6589307208693514</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6376921649137423</v>
+        <v>0.6367602944711374</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6779893616610488</v>
+        <v>0.6778563164463652</v>
       </c>
     </row>
     <row r="30">
@@ -4997,19 +4997,19 @@
         <v>328111</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>296291</v>
+        <v>292996</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>362876</v>
+        <v>361687</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2323868984207391</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2098497336887782</v>
+        <v>0.2075164809046039</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2570095697982635</v>
+        <v>0.2561668088415183</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>121</v>
@@ -5018,19 +5018,19 @@
         <v>129955</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>108303</v>
+        <v>110677</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>152840</v>
+        <v>152758</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.137704014216933</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1147611296027874</v>
+        <v>0.1172767085307881</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1619535026867021</v>
+        <v>0.1618665926155299</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>429</v>
@@ -5039,19 +5039,19 @@
         <v>458066</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>422914</v>
+        <v>420561</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>500939</v>
+        <v>498066</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1944546951914019</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.179532207990019</v>
+        <v>0.178533356635416</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.212654821946939</v>
+        <v>0.2114352193036399</v>
       </c>
     </row>
     <row r="31">
@@ -5068,19 +5068,19 @@
         <v>166704</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>142685</v>
+        <v>141669</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>192651</v>
+        <v>194386</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1180691173364091</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1010576676187896</v>
+        <v>0.1003377763624784</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1364464617072149</v>
+        <v>0.1376749806739304</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>45</v>
@@ -5089,19 +5089,19 @@
         <v>49412</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>36948</v>
+        <v>36274</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>63711</v>
+        <v>64792</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05235856498961304</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03915141593665521</v>
+        <v>0.03843684700057747</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06751051830181692</v>
+        <v>0.06865502491095472</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>200</v>
@@ -5110,19 +5110,19 @@
         <v>216116</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>187705</v>
+        <v>190896</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>244803</v>
+        <v>249060</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09174391561816156</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07968324052467012</v>
+        <v>0.08103763302785645</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.103921758209519</v>
+        <v>0.1057291863160225</v>
       </c>
     </row>
     <row r="32">
@@ -5139,19 +5139,19 @@
         <v>99283</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>81863</v>
+        <v>80539</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>124077</v>
+        <v>121309</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07031804399758258</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0579803171931563</v>
+        <v>0.05704222126677044</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08787811476618466</v>
+        <v>0.08591758531404488</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>28</v>
@@ -5160,19 +5160,19 @@
         <v>29973</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>20475</v>
+        <v>19511</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>42521</v>
+        <v>42393</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03175972262648678</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02169582378377781</v>
+        <v>0.02067404618698909</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0450566214026303</v>
+        <v>0.04492107851551051</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>118</v>
@@ -5181,19 +5181,19 @@
         <v>129256</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>108231</v>
+        <v>107092</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>153643</v>
+        <v>156664</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0548706683210851</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04594535562205481</v>
+        <v>0.04546173736435234</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06522328323952283</v>
+        <v>0.0665056919102142</v>
       </c>
     </row>
     <row r="33">
@@ -5526,19 +5526,19 @@
         <v>206573</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>192579</v>
+        <v>190964</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>220936</v>
+        <v>220397</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7512599449793292</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.700365244889721</v>
+        <v>0.6944927429972295</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8034956475104841</v>
+        <v>0.8015349165067757</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>172</v>
@@ -5547,19 +5547,19 @@
         <v>177322</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>165219</v>
+        <v>164054</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>187775</v>
+        <v>186476</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8318355051239087</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7750617386264277</v>
+        <v>0.7695970285709929</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8808760560053471</v>
+        <v>0.8747807235830898</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>360</v>
@@ -5568,19 +5568,19 @@
         <v>383895</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>365974</v>
+        <v>364050</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>401564</v>
+        <v>400958</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7864471129361604</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7497342878913463</v>
+        <v>0.7457922992859825</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.822645014971273</v>
+        <v>0.8214030142708173</v>
       </c>
     </row>
     <row r="5">
@@ -5597,19 +5597,19 @@
         <v>43953</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32747</v>
+        <v>32951</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58060</v>
+        <v>57709</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1598464180916495</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1190929960321531</v>
+        <v>0.119834584105867</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2111501120362597</v>
+        <v>0.2098730877762012</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -5618,19 +5618,19 @@
         <v>24226</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15654</v>
+        <v>16043</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34294</v>
+        <v>34494</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1136460712494786</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07343597159284224</v>
+        <v>0.07525907349630948</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1608760629458674</v>
+        <v>0.1618131437626308</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -5639,19 +5639,19 @@
         <v>68179</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>52798</v>
+        <v>53344</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>84225</v>
+        <v>85899</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1396708293513125</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1081621393337738</v>
+        <v>0.1092796947883918</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1725442073622792</v>
+        <v>0.1759726944312655</v>
       </c>
     </row>
     <row r="6">
@@ -5668,19 +5668,19 @@
         <v>21916</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13782</v>
+        <v>13930</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31632</v>
+        <v>33031</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0797034536900243</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05012224890147449</v>
+        <v>0.0506605681738884</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1150401434546668</v>
+        <v>0.1201245695177504</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -5689,19 +5689,19 @@
         <v>6776</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2846</v>
+        <v>2887</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12696</v>
+        <v>12768</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03178916058720745</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01334925878549164</v>
+        <v>0.01354544063776428</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05955708672766977</v>
+        <v>0.05989487187040041</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -5710,19 +5710,19 @@
         <v>28692</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19900</v>
+        <v>19468</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40643</v>
+        <v>40018</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05877938842859183</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04076803368519114</v>
+        <v>0.03988188678343774</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0832621286780261</v>
+        <v>0.08198037390334383</v>
       </c>
     </row>
     <row r="7">
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7624</v>
+        <v>9488</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009190183238997012</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02772530056555246</v>
+        <v>0.03450601506220616</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -5760,19 +5760,19 @@
         <v>4845</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1896</v>
+        <v>1958</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10899</v>
+        <v>12452</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02272926303940531</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008893221091349546</v>
+        <v>0.009186419627259235</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05112777579862957</v>
+        <v>0.05841410660228894</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -5781,19 +5781,19 @@
         <v>7372</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3060</v>
+        <v>2961</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14769</v>
+        <v>14878</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01510266928393525</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006268830649696294</v>
+        <v>0.006066452743221652</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03025644826319291</v>
+        <v>0.03047914624567338</v>
       </c>
     </row>
     <row r="8">
@@ -5885,19 +5885,19 @@
         <v>184123</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>169354</v>
+        <v>169007</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>197874</v>
+        <v>196451</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7598519322934757</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6989043573434538</v>
+        <v>0.697469944837072</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8166020225344867</v>
+        <v>0.8107298414352124</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>150</v>
@@ -5906,19 +5906,19 @@
         <v>156917</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>145610</v>
+        <v>145859</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>167011</v>
+        <v>166131</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8294754172810029</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7697054962529732</v>
+        <v>0.7710209797006562</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8828359121297822</v>
+        <v>0.8781840076690324</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>318</v>
@@ -5927,19 +5927,19 @@
         <v>341040</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>321842</v>
+        <v>323668</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>357238</v>
+        <v>358090</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7903765722634711</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7458843412272635</v>
+        <v>0.7501163748407091</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8279179186074334</v>
+        <v>0.8298911746741114</v>
       </c>
     </row>
     <row r="10">
@@ -5956,19 +5956,19 @@
         <v>39981</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27965</v>
+        <v>29523</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53344</v>
+        <v>55161</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1649979722777736</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1154085351024976</v>
+        <v>0.1218395623186354</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2201433247612544</v>
+        <v>0.2276428891816464</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -5977,19 +5977,19 @@
         <v>19521</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11562</v>
+        <v>12020</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28277</v>
+        <v>28759</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1031890646380061</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0611164218674044</v>
+        <v>0.06353799798722119</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1494735668186148</v>
+        <v>0.1520243222005428</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -5998,19 +5998,19 @@
         <v>59502</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46920</v>
+        <v>46402</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76414</v>
+        <v>74859</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1378994342919115</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1087393554362908</v>
+        <v>0.107540016335982</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.177093015163292</v>
+        <v>0.1734894143263105</v>
       </c>
     </row>
     <row r="11">
@@ -6027,19 +6027,19 @@
         <v>16346</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9059</v>
+        <v>9981</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25365</v>
+        <v>25683</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.067456807399744</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03738371555454755</v>
+        <v>0.04118921045706915</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1046761838193206</v>
+        <v>0.1059906054825783</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -6048,19 +6048,19 @@
         <v>9713</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4695</v>
+        <v>4764</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17063</v>
+        <v>17308</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05134453014894699</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02481781282752518</v>
+        <v>0.02518089581116255</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0901973581934218</v>
+        <v>0.09149332105057735</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -6069,19 +6069,19 @@
         <v>26059</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17078</v>
+        <v>17459</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36764</v>
+        <v>37759</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06039279067800944</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03958025711646524</v>
+        <v>0.0404612795854805</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08520180456342889</v>
+        <v>0.0875086769187504</v>
       </c>
     </row>
     <row r="12">
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6471</v>
+        <v>6596</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007693288029006672</v>
@@ -6110,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02670507934047361</v>
+        <v>0.02722123394224786</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -6119,19 +6119,19 @@
         <v>3025</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>931</v>
+        <v>945</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8190</v>
+        <v>9089</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.015990987932044</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004919553315490459</v>
+        <v>0.004993401952510157</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04329524070151854</v>
+        <v>0.04804303097394928</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -6140,19 +6140,19 @@
         <v>4889</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1851</v>
+        <v>1875</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10289</v>
+        <v>10903</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01133120276660786</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004288676131873138</v>
+        <v>0.004346234285085473</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02384560166475044</v>
+        <v>0.02526813408902056</v>
       </c>
     </row>
     <row r="13">
@@ -6244,19 +6244,19 @@
         <v>89151</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>75526</v>
+        <v>75098</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104359</v>
+        <v>104857</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4171569476018949</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3534022687321673</v>
+        <v>0.3514032750775858</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4883184955367805</v>
+        <v>0.4906488175829605</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -6265,19 +6265,19 @@
         <v>47513</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>40245</v>
+        <v>38432</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>53673</v>
+        <v>53833</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7296415741935587</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6180328503833441</v>
+        <v>0.5901905594297112</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8242449078148955</v>
+        <v>0.8267023594618431</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>129</v>
@@ -6286,19 +6286,19 @@
         <v>136663</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>117619</v>
+        <v>118193</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>152493</v>
+        <v>153938</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4901350878543232</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4218344400989091</v>
+        <v>0.4238923679565653</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5469086337742817</v>
+        <v>0.5520893743618994</v>
       </c>
     </row>
     <row r="15">
@@ -6315,19 +6315,19 @@
         <v>70739</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>55436</v>
+        <v>56993</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>85625</v>
+        <v>85070</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3310059014632915</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2593974343928167</v>
+        <v>0.2666838490778878</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4006616226626252</v>
+        <v>0.3980614805274094</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>8</v>
@@ -6336,19 +6336,19 @@
         <v>8158</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3715</v>
+        <v>3890</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14316</v>
+        <v>15853</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1252727129870431</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05705511178383738</v>
+        <v>0.05974492407519611</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2198485332026506</v>
+        <v>0.2434470841120579</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>75</v>
@@ -6357,19 +6357,19 @@
         <v>78897</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>63558</v>
+        <v>64995</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>95053</v>
+        <v>95158</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.28295865623731</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2279485575123478</v>
+        <v>0.2330999386694617</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.340903689764506</v>
+        <v>0.341280280936618</v>
       </c>
     </row>
     <row r="16">
@@ -6386,19 +6386,19 @@
         <v>36242</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26524</v>
+        <v>25537</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48457</v>
+        <v>48418</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1695849301870684</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1241133273257659</v>
+        <v>0.1194931727254335</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2267403603197653</v>
+        <v>0.2265609701456581</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -6407,19 +6407,19 @@
         <v>8471</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4378</v>
+        <v>4165</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14742</v>
+        <v>14608</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1300894003036259</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06723832529635723</v>
+        <v>0.06396824681450224</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2263840807867185</v>
+        <v>0.2243293703869352</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -6428,19 +6428,19 @@
         <v>44713</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33521</v>
+        <v>34262</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59091</v>
+        <v>58376</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1603610833994174</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1202205364930118</v>
+        <v>0.1228795942180117</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.211927791257182</v>
+        <v>0.2093634132469246</v>
       </c>
     </row>
     <row r="17">
@@ -6457,19 +6457,19 @@
         <v>17578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10589</v>
+        <v>10578</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27220</v>
+        <v>27406</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08225222074774521</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04954917021596652</v>
+        <v>0.0494953000096176</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1273693543247893</v>
+        <v>0.12823902633353</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4970</v>
+        <v>6095</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01499631251577228</v>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07632801010797639</v>
+        <v>0.09360009353003093</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -6499,19 +6499,19 @@
         <v>18555</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10965</v>
+        <v>11508</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28995</v>
+        <v>29787</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06654517250894937</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03932601951099546</v>
+        <v>0.04127420943900156</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1039873495524574</v>
+        <v>0.1068282766583562</v>
       </c>
     </row>
     <row r="18">
@@ -6603,19 +6603,19 @@
         <v>251392</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>227844</v>
+        <v>228966</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>273901</v>
+        <v>274489</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5211113623319766</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4722994738882283</v>
+        <v>0.4746252473819385</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.567771487028538</v>
+        <v>0.5689890616548744</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>274</v>
@@ -6624,19 +6624,19 @@
         <v>277712</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>260992</v>
+        <v>261680</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>293943</v>
+        <v>293864</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7609761608304639</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7151604141568619</v>
+        <v>0.7170457440002659</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8054501902725679</v>
+        <v>0.8052335395070875</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>512</v>
@@ -6645,19 +6645,19 @@
         <v>529104</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>497594</v>
+        <v>499245</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>557171</v>
+        <v>557095</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6244169083643711</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.587230171279278</v>
+        <v>0.5891790094271736</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6575396235072546</v>
+        <v>0.657450427021303</v>
       </c>
     </row>
     <row r="20">
@@ -6674,19 +6674,19 @@
         <v>128958</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>109869</v>
+        <v>109316</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>150359</v>
+        <v>150032</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2673167648281247</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2277478968575149</v>
+        <v>0.2266007153572009</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3116787896324448</v>
+        <v>0.3110027559481643</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>55</v>
@@ -6695,19 +6695,19 @@
         <v>55252</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>42492</v>
+        <v>42591</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>69868</v>
+        <v>69340</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.151400185635585</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1164347426681442</v>
+        <v>0.1167058385613416</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1914493090522681</v>
+        <v>0.1900018281343964</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>179</v>
@@ -6716,19 +6716,19 @@
         <v>184210</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>158921</v>
+        <v>162098</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>209232</v>
+        <v>211180</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2173935348141627</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1875491872684044</v>
+        <v>0.1912986633594566</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2469225398365932</v>
+        <v>0.2492225006520489</v>
       </c>
     </row>
     <row r="21">
@@ -6745,19 +6745,19 @@
         <v>82747</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>66675</v>
+        <v>68154</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>102653</v>
+        <v>101192</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1715257666571454</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.138211010540843</v>
+        <v>0.1412769439912183</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2127907735884608</v>
+        <v>0.2097609970759871</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -6766,19 +6766,19 @@
         <v>20981</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13640</v>
+        <v>14061</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31520</v>
+        <v>32076</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05749030221712763</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03737554753398347</v>
+        <v>0.03852841954454811</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08636897530287205</v>
+        <v>0.08789370832066964</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>98</v>
@@ -6787,19 +6787,19 @@
         <v>103727</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>86535</v>
+        <v>84974</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>125556</v>
+        <v>124757</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1224126996511585</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1021234427657062</v>
+        <v>0.1002813732972074</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1481740134818031</v>
+        <v>0.1472310793498498</v>
       </c>
     </row>
     <row r="22">
@@ -6816,19 +6816,19 @@
         <v>19319</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11742</v>
+        <v>12538</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29851</v>
+        <v>30187</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04004610618275335</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02434052545302874</v>
+        <v>0.0259908241058834</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06187856102273777</v>
+        <v>0.06257407276268427</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -6837,19 +6837,19 @@
         <v>10997</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5264</v>
+        <v>5602</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19311</v>
+        <v>20632</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03013335131682342</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01442305545829253</v>
+        <v>0.01535012443339945</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05291634407679031</v>
+        <v>0.05653502695432932</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -6858,19 +6858,19 @@
         <v>30316</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20442</v>
+        <v>21201</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42557</v>
+        <v>42694</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0357768571703076</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02412470379834281</v>
+        <v>0.02502056098758209</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05022276234875441</v>
+        <v>0.0503848327267795</v>
       </c>
     </row>
     <row r="23">
@@ -6962,19 +6962,19 @@
         <v>66098</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>53882</v>
+        <v>53700</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>80235</v>
+        <v>79625</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3424402223961061</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2791473571618204</v>
+        <v>0.2782056304343569</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4156800194721555</v>
+        <v>0.4125202008386368</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>117</v>
@@ -6983,19 +6983,19 @@
         <v>120771</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>106990</v>
+        <v>107529</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>134633</v>
+        <v>133391</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.614229974902018</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5441383685646208</v>
+        <v>0.5468828507872453</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6847290155336139</v>
+        <v>0.6784120311009979</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>179</v>
@@ -7004,19 +7004,19 @@
         <v>186869</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>167011</v>
+        <v>166561</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>206519</v>
+        <v>207145</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4795907872513212</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4286269042991707</v>
+        <v>0.4274710607274589</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.530020103511305</v>
+        <v>0.5316279714413695</v>
       </c>
     </row>
     <row r="25">
@@ -7033,19 +7033,19 @@
         <v>79434</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>64766</v>
+        <v>64761</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>92714</v>
+        <v>93591</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4115256454237113</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3355377536933752</v>
+        <v>0.3355085359910136</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4803266981464163</v>
+        <v>0.4848701449747477</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>54</v>
@@ -7054,19 +7054,19 @@
         <v>54832</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>43255</v>
+        <v>44442</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68030</v>
+        <v>67594</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.27887137890908</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2199884193055022</v>
+        <v>0.2260252113131464</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3459921728788095</v>
+        <v>0.343778064231013</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>125</v>
@@ -7075,19 +7075,19 @@
         <v>134265</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>114934</v>
+        <v>115712</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>154348</v>
+        <v>154226</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3445856397200739</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2949724815282199</v>
+        <v>0.2969697588927284</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3961272251311175</v>
+        <v>0.3958140503543296</v>
       </c>
     </row>
     <row r="26">
@@ -7104,19 +7104,19 @@
         <v>30184</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21355</v>
+        <v>20282</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>42361</v>
+        <v>41209</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1563778508780386</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1106335214600653</v>
+        <v>0.1050758232890961</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2194625236398759</v>
+        <v>0.2134939397479344</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -7125,19 +7125,19 @@
         <v>16815</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10485</v>
+        <v>10459</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25455</v>
+        <v>26169</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08552023623140842</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05332474696960623</v>
+        <v>0.05319525867266353</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1294628320001865</v>
+        <v>0.1330942943671123</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>44</v>
@@ -7146,19 +7146,19 @@
         <v>46999</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>34440</v>
+        <v>33773</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>61643</v>
+        <v>61136</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1206216761750681</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08838867395819514</v>
+        <v>0.08667741894913969</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1582031426651288</v>
+        <v>0.1569038507102123</v>
       </c>
     </row>
     <row r="27">
@@ -7175,19 +7175,19 @@
         <v>17306</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10226</v>
+        <v>10116</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>28182</v>
+        <v>26386</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.08965628130214404</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05297978575426285</v>
+        <v>0.05240689558136428</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1460024162589736</v>
+        <v>0.1366975331916186</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4</v>
@@ -7196,19 +7196,19 @@
         <v>4203</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1037</v>
+        <v>1080</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9655</v>
+        <v>11656</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02137840995749352</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.005271714692889462</v>
+        <v>0.005494637760594537</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04910186911274537</v>
+        <v>0.05928019315599237</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>19</v>
@@ -7217,19 +7217,19 @@
         <v>21509</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>12758</v>
+        <v>14290</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>32393</v>
+        <v>33183</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05520189685353671</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03274328087574788</v>
+        <v>0.03667510741978451</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08313401540897582</v>
+        <v>0.08516222492000693</v>
       </c>
     </row>
     <row r="28">
@@ -7321,19 +7321,19 @@
         <v>797337</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>760401</v>
+        <v>758854</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>834411</v>
+        <v>833544</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.566922772090702</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5406603052587989</v>
+        <v>0.539560363286518</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5932828649916524</v>
+        <v>0.5926666660534197</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>759</v>
@@ -7342,19 +7342,19 @@
         <v>780234</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>752659</v>
+        <v>752792</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>804780</v>
+        <v>809086</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7582254445360006</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7314286284510402</v>
+        <v>0.7315574447873141</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7820790004165581</v>
+        <v>0.7862634956226889</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1498</v>
@@ -7363,19 +7363,19 @@
         <v>1577571</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1528405</v>
+        <v>1531335</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1622136</v>
+        <v>1625451</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6477517492506994</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6275643506215464</v>
+        <v>0.628767068135044</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6660503026464462</v>
+        <v>0.6674114755705062</v>
       </c>
     </row>
     <row r="30">
@@ -7392,19 +7392,19 @@
         <v>363064</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>331499</v>
+        <v>330153</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>399367</v>
+        <v>400564</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2581460910823068</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2357022406331011</v>
+        <v>0.2347452210737601</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2839576480223507</v>
+        <v>0.2848092125424699</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>161</v>
@@ -7413,19 +7413,19 @@
         <v>161989</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>140422</v>
+        <v>141188</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>186869</v>
+        <v>188091</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1574193611474494</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1364608237054929</v>
+        <v>0.1372054521941089</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1815974759435703</v>
+        <v>0.182785390381599</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>499</v>
@@ -7434,19 +7434,19 @@
         <v>525053</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>485604</v>
+        <v>485907</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>565347</v>
+        <v>568714</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2155871532000676</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1993893955213398</v>
+        <v>0.1995135786149639</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2321320754417913</v>
+        <v>0.2335142540806735</v>
       </c>
     </row>
     <row r="31">
@@ -7463,19 +7463,19 @@
         <v>187435</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>164040</v>
+        <v>161232</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>215492</v>
+        <v>214086</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1332697904329911</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.11663547075981</v>
+        <v>0.1146392273976972</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1532193815736496</v>
+        <v>0.1522196999296557</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>62</v>
@@ -7484,19 +7484,19 @@
         <v>62757</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>48639</v>
+        <v>48493</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>78921</v>
+        <v>79040</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06098631741945004</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04726655370920371</v>
+        <v>0.04712546850763771</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07669468116440913</v>
+        <v>0.07681095011003633</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>239</v>
@@ -7505,19 +7505,19 @@
         <v>250191</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>222057</v>
+        <v>223205</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>281395</v>
+        <v>284787</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1027286635654224</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09117667432609962</v>
+        <v>0.09164796293354659</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1155409397894384</v>
+        <v>0.116933553058944</v>
       </c>
     </row>
     <row r="32">
@@ -7534,19 +7534,19 @@
         <v>58594</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>44165</v>
+        <v>45972</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>74231</v>
+        <v>75539</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04166134639400017</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03140237870206557</v>
+        <v>0.03268711574909307</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05277960784142048</v>
+        <v>0.05370984263943229</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>23</v>
@@ -7555,19 +7555,19 @@
         <v>24047</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15048</v>
+        <v>16046</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>35871</v>
+        <v>36579</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02336887689709994</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01462331324037393</v>
+        <v>0.01559317064621272</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03485891641775864</v>
+        <v>0.03554677896806894</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>77</v>
@@ -7576,19 +7576,19 @@
         <v>82641</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>63689</v>
+        <v>64934</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>100617</v>
+        <v>100891</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0339324339838106</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02615054437124006</v>
+        <v>0.02666204675815225</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04131344769128208</v>
+        <v>0.04142571338836998</v>
       </c>
     </row>
     <row r="33">
@@ -7921,19 +7921,19 @@
         <v>162184</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>148331</v>
+        <v>150218</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>171523</v>
+        <v>171982</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8300958538611293</v>
+        <v>0.8300958538611292</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7591929156597559</v>
+        <v>0.7688529005890355</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8778959924929394</v>
+        <v>0.8802429750780444</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>185</v>
@@ -7942,19 +7942,19 @@
         <v>137232</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>128579</v>
+        <v>128363</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>144620</v>
+        <v>143624</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8582548726868611</v>
+        <v>0.8582548726868613</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8041377319104617</v>
+        <v>0.8027843785853948</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.904455862950439</v>
+        <v>0.8982312964364749</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>322</v>
@@ -7963,19 +7963,19 @@
         <v>299417</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>286170</v>
+        <v>283602</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>311748</v>
+        <v>312261</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8427691916459348</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8054842814357267</v>
+        <v>0.7982570732487781</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8774781793406526</v>
+        <v>0.8789225931295888</v>
       </c>
     </row>
     <row r="5">
@@ -7992,19 +7992,19 @@
         <v>22952</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15112</v>
+        <v>14368</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34599</v>
+        <v>32900</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1174721322672934</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07734717580858559</v>
+        <v>0.07353777936174516</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1770875197325865</v>
+        <v>0.1683894884882076</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -8013,19 +8013,19 @@
         <v>16741</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10740</v>
+        <v>11498</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25802</v>
+        <v>25197</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1047009903743234</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06716742911565786</v>
+        <v>0.07190954973777475</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1613684014354743</v>
+        <v>0.157580830774973</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -8034,19 +8034,19 @@
         <v>39693</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29395</v>
+        <v>28857</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51945</v>
+        <v>52633</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1117243114320238</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.082739167830458</v>
+        <v>0.08122434813983294</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1462091096284715</v>
+        <v>0.1481470572876667</v>
       </c>
     </row>
     <row r="6">
@@ -8063,19 +8063,19 @@
         <v>6866</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2321</v>
+        <v>2269</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17113</v>
+        <v>16025</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03514102373168533</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01187859343820558</v>
+        <v>0.01161073930654623</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08758668756184597</v>
+        <v>0.08201829954924084</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -8084,19 +8084,19 @@
         <v>2159</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6092</v>
+        <v>6124</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01350459225463033</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004051655288549032</v>
+        <v>0.003977244307570165</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03809839041858532</v>
+        <v>0.03830216179218047</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -8105,19 +8105,19 @@
         <v>9025</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4183</v>
+        <v>4232</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19377</v>
+        <v>20127</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.0254032624032988</v>
+        <v>0.02540326240329879</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01177315346996029</v>
+        <v>0.01191062540962056</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05454159582054022</v>
+        <v>0.0566510715374603</v>
       </c>
     </row>
     <row r="7">
@@ -8134,19 +8134,19 @@
         <v>3378</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>944</v>
+        <v>994</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8679</v>
+        <v>9613</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01729099013989207</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004829199845940134</v>
+        <v>0.00508958762488167</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04441907701514558</v>
+        <v>0.04920103327469702</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -8155,19 +8155,19 @@
         <v>3764</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1435</v>
+        <v>1480</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8112</v>
+        <v>8501</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02353954468418513</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00897269121406852</v>
+        <v>0.009255441819188845</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05073384085052349</v>
+        <v>0.0531661798361102</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -8176,19 +8176,19 @@
         <v>7142</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3420</v>
+        <v>3204</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13826</v>
+        <v>13955</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02010323451874253</v>
+        <v>0.02010323451874252</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009627176653280962</v>
+        <v>0.009018853794846614</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03891705124521822</v>
+        <v>0.03928054177272607</v>
       </c>
     </row>
     <row r="8">
@@ -8280,19 +8280,19 @@
         <v>139348</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>127746</v>
+        <v>125644</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>148328</v>
+        <v>148782</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8438048556835644</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7735541021504934</v>
+        <v>0.760822216636994</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8981820941979548</v>
+        <v>0.9009313663394292</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>150</v>
@@ -8301,19 +8301,19 @@
         <v>111592</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>103680</v>
+        <v>102857</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>117386</v>
+        <v>116645</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.898641448604699</v>
+        <v>0.8986414486046989</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8349270106108377</v>
+        <v>0.8282959600436037</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9452983612737088</v>
+        <v>0.939332981483517</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>270</v>
@@ -8322,19 +8322,19 @@
         <v>250940</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>236393</v>
+        <v>237187</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>262650</v>
+        <v>261612</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.867341134377304</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.817062525321005</v>
+        <v>0.8198048904258813</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9078157223386981</v>
+        <v>0.9042269379043656</v>
       </c>
     </row>
     <row r="10">
@@ -8351,19 +8351,19 @@
         <v>20535</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12118</v>
+        <v>11988</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31651</v>
+        <v>32295</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1243482894488006</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07337871680866891</v>
+        <v>0.07259362869141731</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1916621888815895</v>
+        <v>0.195561198028248</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -8372,19 +8372,19 @@
         <v>7445</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3533</v>
+        <v>3501</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13789</v>
+        <v>13955</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05995046234176944</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02845463244278053</v>
+        <v>0.02819288214051854</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1110407854799895</v>
+        <v>0.1123788914139014</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -8393,19 +8393,19 @@
         <v>27980</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18545</v>
+        <v>18798</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41033</v>
+        <v>41773</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09670825703026241</v>
+        <v>0.0967082570302624</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06409806503349604</v>
+        <v>0.06497188075991428</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1418247125523033</v>
+        <v>0.1443830989775018</v>
       </c>
     </row>
     <row r="11">
@@ -8422,19 +8422,19 @@
         <v>3726</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>987</v>
+        <v>1033</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9355</v>
+        <v>9629</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02256207005180303</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005978874714377897</v>
+        <v>0.006252570688742178</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05664651617996416</v>
+        <v>0.05830767455574943</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -8456,19 +8456,19 @@
         <v>3726</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1013</v>
+        <v>818</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9582</v>
+        <v>9035</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01287825965514639</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003502005760426483</v>
+        <v>0.002826844451207283</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03311984060849146</v>
+        <v>0.03122981945831391</v>
       </c>
     </row>
     <row r="12">
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7040</v>
+        <v>8584</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.00928478481583196</v>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04262896001676379</v>
+        <v>0.05197973471760135</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -8506,19 +8506,19 @@
         <v>5142</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1689</v>
+        <v>2138</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11859</v>
+        <v>13129</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04140808905353176</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01360226659388826</v>
+        <v>0.017213971507025</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09549936393220787</v>
+        <v>0.1057235089330746</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -8527,19 +8527,19 @@
         <v>6675</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2509</v>
+        <v>2513</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15415</v>
+        <v>15563</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0230723489372873</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008673709887335601</v>
+        <v>0.008685426571326794</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0532785123657611</v>
+        <v>0.05379117425467194</v>
       </c>
     </row>
     <row r="13">
@@ -8631,19 +8631,19 @@
         <v>51230</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38470</v>
+        <v>39119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>63958</v>
+        <v>64015</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3686518761521497</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2768289108481174</v>
+        <v>0.2814955334250757</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4602415262771024</v>
+        <v>0.4606515318639905</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>40</v>
@@ -8652,19 +8652,19 @@
         <v>29809</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23577</v>
+        <v>23335</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35573</v>
+        <v>35501</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6121020412343172</v>
+        <v>0.6121020412343174</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4841332277333065</v>
+        <v>0.479149919468492</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.730449433368087</v>
+        <v>0.7289818007904141</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>86</v>
@@ -8673,19 +8673,19 @@
         <v>81040</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>66842</v>
+        <v>67499</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>95923</v>
+        <v>96149</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.431827317177519</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3561741125674213</v>
+        <v>0.3596732350855986</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5111343098766562</v>
+        <v>0.5123390382761149</v>
       </c>
     </row>
     <row r="15">
@@ -8702,19 +8702,19 @@
         <v>46425</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>35271</v>
+        <v>34583</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>60593</v>
+        <v>60075</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3340697850186605</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2538091927781108</v>
+        <v>0.2488578884264676</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4360238282850242</v>
+        <v>0.4322940659845264</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -8723,19 +8723,19 @@
         <v>6656</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3157</v>
+        <v>3110</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11816</v>
+        <v>12557</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1366660711435061</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.064819047562759</v>
+        <v>0.06386903600752074</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2426369807168215</v>
+        <v>0.2578504516416155</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>50</v>
@@ -8744,19 +8744,19 @@
         <v>53080</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>39882</v>
+        <v>41049</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>66052</v>
+        <v>67723</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2828434213811598</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2125165467104194</v>
+        <v>0.2187339870446959</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3519632657477301</v>
+        <v>0.3608693994482433</v>
       </c>
     </row>
     <row r="16">
@@ -8773,19 +8773,19 @@
         <v>32429</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20943</v>
+        <v>22286</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44743</v>
+        <v>46605</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2333602042828214</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1507019303198657</v>
+        <v>0.1603717551467661</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3219682590383252</v>
+        <v>0.3353662162276754</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -8794,19 +8794,19 @@
         <v>7342</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3781</v>
+        <v>3681</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12902</v>
+        <v>12730</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1507562163006123</v>
+        <v>0.1507562163006124</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07764191980051152</v>
+        <v>0.07558839864642357</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2649330099687688</v>
+        <v>0.2613880350512055</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -8818,16 +8818,16 @@
         <v>28561</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55867</v>
+        <v>55245</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2119244276035612</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1521922740966653</v>
+        <v>0.1521877109371044</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2976919071251927</v>
+        <v>0.2943769241082083</v>
       </c>
     </row>
     <row r="17">
@@ -8844,19 +8844,19 @@
         <v>8883</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3088</v>
+        <v>3228</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19774</v>
+        <v>24338</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06391813454636849</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02222434583208987</v>
+        <v>0.02322585722321263</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1422947738835943</v>
+        <v>0.1751330510375022</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -8865,19 +8865,19 @@
         <v>4893</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2000</v>
+        <v>1901</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9857</v>
+        <v>9643</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1004756713215642</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04106532874449022</v>
+        <v>0.0390279345573018</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2024101937689292</v>
+        <v>0.1980068331228765</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -8886,19 +8886,19 @@
         <v>13776</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6907</v>
+        <v>7593</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26263</v>
+        <v>28173</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.07340483383776</v>
+        <v>0.07340483383775999</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03680478272651484</v>
+        <v>0.04046116863841103</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1399464371874289</v>
+        <v>0.1501239002115005</v>
       </c>
     </row>
     <row r="18">
@@ -8990,19 +8990,19 @@
         <v>146633</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>128176</v>
+        <v>127121</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>167945</v>
+        <v>164817</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5083004250283197</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4443181115152101</v>
+        <v>0.4406601899121276</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5821767077756517</v>
+        <v>0.5713313025548354</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>192</v>
@@ -9011,19 +9011,19 @@
         <v>148572</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>134882</v>
+        <v>134983</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>161077</v>
+        <v>160425</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.6825571170450117</v>
+        <v>0.6825571170450115</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6196660575151969</v>
+        <v>0.6201310537709553</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7400074401793504</v>
+        <v>0.7370138999543089</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>313</v>
@@ -9032,19 +9032,19 @@
         <v>295205</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>271749</v>
+        <v>272162</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>317538</v>
+        <v>319380</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5832395917685114</v>
+        <v>0.5832395917685116</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5368969628983687</v>
+        <v>0.537713587603959</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6273631355108787</v>
+        <v>0.6310030486520305</v>
       </c>
     </row>
     <row r="20">
@@ -9061,19 +9061,19 @@
         <v>100158</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>81406</v>
+        <v>84660</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>118354</v>
+        <v>118360</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3471962429246787</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2821927674303067</v>
+        <v>0.2934723113659079</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4102695917837245</v>
+        <v>0.41029228555853</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>59</v>
@@ -9082,19 +9082,19 @@
         <v>47740</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>37405</v>
+        <v>37518</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>59871</v>
+        <v>61906</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2193234634536009</v>
+        <v>0.2193234634536008</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1718457357251708</v>
+        <v>0.172361133217309</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2750544952668789</v>
+        <v>0.2844020500505631</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>150</v>
@@ -9103,19 +9103,19 @@
         <v>147898</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>127123</v>
+        <v>127868</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>170293</v>
+        <v>170976</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2922044980946039</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2511577560012352</v>
+        <v>0.252630430292459</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3364493649299096</v>
+        <v>0.3377993197268598</v>
       </c>
     </row>
     <row r="21">
@@ -9132,19 +9132,19 @@
         <v>30793</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19650</v>
+        <v>19713</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>45450</v>
+        <v>43938</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1067430631850285</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0681174980384574</v>
+        <v>0.06833614983248874</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1575524929010615</v>
+        <v>0.1523098630153583</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -9153,19 +9153,19 @@
         <v>9204</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5262</v>
+        <v>4943</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15351</v>
+        <v>15159</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.0422863189712724</v>
+        <v>0.04228631897127239</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02417206050721965</v>
+        <v>0.02270667504533681</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07052622156353504</v>
+        <v>0.0696405064341058</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>38</v>
@@ -9174,19 +9174,19 @@
         <v>39997</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>28298</v>
+        <v>29402</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>55038</v>
+        <v>55345</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07902341209867676</v>
+        <v>0.07902341209867679</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0559089921584211</v>
+        <v>0.05808892148228704</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1087395845848543</v>
+        <v>0.1093456324931599</v>
       </c>
     </row>
     <row r="22">
@@ -9203,19 +9203,19 @@
         <v>10893</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5131</v>
+        <v>5183</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21030</v>
+        <v>21801</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03776026886197303</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01778737177325704</v>
+        <v>0.01796706600588362</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07289979027150921</v>
+        <v>0.07557156725098821</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -9224,19 +9224,19 @@
         <v>12153</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7040</v>
+        <v>6716</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20178</v>
+        <v>20173</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.05583310053011509</v>
+        <v>0.05583310053011508</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03234470269654472</v>
+        <v>0.03085198794650638</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09270081092114575</v>
+        <v>0.09267667530486827</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -9245,19 +9245,19 @@
         <v>23046</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14727</v>
+        <v>14153</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34336</v>
+        <v>34721</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04553249803820794</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02909645087892557</v>
+        <v>0.02796284184589864</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06783789250035925</v>
+        <v>0.06859953550059655</v>
       </c>
     </row>
     <row r="23">
@@ -9349,19 +9349,19 @@
         <v>62863</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>46590</v>
+        <v>47644</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>78813</v>
+        <v>78121</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3725240519663641</v>
+        <v>0.3725240519663642</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.276089095999177</v>
+        <v>0.2823345936815767</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4670379967303906</v>
+        <v>0.4629405832550603</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>103</v>
@@ -9370,19 +9370,19 @@
         <v>74499</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>62957</v>
+        <v>64027</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>86017</v>
+        <v>84751</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4945588328278428</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4179353297572579</v>
+        <v>0.4250402823856092</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5710237152455055</v>
+        <v>0.562617780551277</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>150</v>
@@ -9391,19 +9391,19 @@
         <v>137362</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>118373</v>
+        <v>118239</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>157072</v>
+        <v>157233</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.430081208264469</v>
+        <v>0.4300812082644689</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.370624783589076</v>
+        <v>0.3702055985797862</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4917933433393992</v>
+        <v>0.4922947190103698</v>
       </c>
     </row>
     <row r="25">
@@ -9420,19 +9420,19 @@
         <v>75748</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>60300</v>
+        <v>60833</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>91976</v>
+        <v>91912</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4488742621048963</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3573325946600639</v>
+        <v>0.3604915470701779</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5450415761718388</v>
+        <v>0.5446647951223648</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>85</v>
@@ -9441,19 +9441,19 @@
         <v>62375</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>51592</v>
+        <v>51591</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73956</v>
+        <v>73055</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4140763887682475</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3424934624122673</v>
+        <v>0.3424833202180203</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4909525824231807</v>
+        <v>0.4849762377285304</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>148</v>
@@ -9462,19 +9462,19 @@
         <v>138123</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>119576</v>
+        <v>119365</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>156932</v>
+        <v>157302</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4324620014334685</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3743906430078143</v>
+        <v>0.3737305566382534</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4913540988921987</v>
+        <v>0.4925128295310029</v>
       </c>
     </row>
     <row r="26">
@@ -9491,19 +9491,19 @@
         <v>23216</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14141</v>
+        <v>14864</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>40321</v>
+        <v>39806</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1375780385990205</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08379931143828499</v>
+        <v>0.0880824679781821</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2389421314891795</v>
+        <v>0.2358867969378841</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -9512,19 +9512,19 @@
         <v>9586</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5437</v>
+        <v>5290</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15842</v>
+        <v>15731</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.06363524532397727</v>
+        <v>0.06363524532397725</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03609091973233191</v>
+        <v>0.03511647587230295</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1051668799102792</v>
+        <v>0.1044302992031303</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -9533,19 +9533,19 @@
         <v>32802</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>22645</v>
+        <v>21567</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>49550</v>
+        <v>50562</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1027032522503563</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07090024877269074</v>
+        <v>0.06752589936247658</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1551420663479721</v>
+        <v>0.1583080127544064</v>
       </c>
     </row>
     <row r="27">
@@ -9562,19 +9562,19 @@
         <v>6923</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2583</v>
+        <v>2766</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>14151</v>
+        <v>14998</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.04102364732971895</v>
+        <v>0.04102364732971896</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01530754040713041</v>
+        <v>0.01639159260230996</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08385986541138943</v>
+        <v>0.08887970910954869</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>5</v>
@@ -9583,19 +9583,19 @@
         <v>4177</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1422</v>
+        <v>1595</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9310</v>
+        <v>10142</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.02772953307993251</v>
+        <v>0.02772953307993252</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.009439534154825976</v>
+        <v>0.01059076657366006</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06180224046684202</v>
+        <v>0.06732424174893535</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>11</v>
@@ -9604,19 +9604,19 @@
         <v>11100</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5729</v>
+        <v>5694</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>19902</v>
+        <v>19537</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03475353805170611</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01793734197241074</v>
+        <v>0.01782883211538467</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06231277839745605</v>
+        <v>0.0611698544670753</v>
       </c>
     </row>
     <row r="28">
@@ -9708,19 +9708,19 @@
         <v>562259</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>528231</v>
+        <v>529905</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>596578</v>
+        <v>597351</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5876964151626533</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5521285523407417</v>
+        <v>0.5538786760607076</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6235676981991666</v>
+        <v>0.6243759181904275</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>670</v>
@@ -9729,19 +9729,19 @@
         <v>501704</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>480304</v>
+        <v>478985</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>523815</v>
+        <v>523248</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.7156144935304016</v>
+        <v>0.7156144935304015</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.685089208425963</v>
+        <v>0.683207769626302</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.747152558787313</v>
+        <v>0.74634296163605</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1141</v>
@@ -9750,19 +9750,19 @@
         <v>1063964</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1022069</v>
+        <v>1021906</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1103983</v>
+        <v>1104858</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6417928543412214</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6165215339867018</v>
+        <v>0.6164233709444126</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6659332392515879</v>
+        <v>0.666461056947264</v>
       </c>
     </row>
     <row r="30">
@@ -9779,19 +9779,19 @@
         <v>265817</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>234593</v>
+        <v>236947</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>297266</v>
+        <v>297849</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2778433392009222</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2452064760622165</v>
+        <v>0.2476669322349564</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3107147251842707</v>
+        <v>0.3113235404401707</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>185</v>
@@ -9800,19 +9800,19 @@
         <v>140957</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>121877</v>
+        <v>122893</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>158276</v>
+        <v>162375</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2010561918114115</v>
+        <v>0.2010561918114114</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1738409552776594</v>
+        <v>0.1752901751907781</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2257595747481086</v>
+        <v>0.2316063885311943</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>418</v>
@@ -9821,19 +9821,19 @@
         <v>406774</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>370158</v>
+        <v>373808</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>446220</v>
+        <v>445584</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2453701243007544</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2232828452672661</v>
+        <v>0.2254842333047001</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2691644074245519</v>
+        <v>0.2687804383067878</v>
       </c>
     </row>
     <row r="31">
@@ -9850,19 +9850,19 @@
         <v>97031</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>77516</v>
+        <v>77104</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>125535</v>
+        <v>123035</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1014202901147987</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08102257833777737</v>
+        <v>0.08059179594996922</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1312144058158246</v>
+        <v>0.1286016217859111</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>38</v>
@@ -9871,19 +9871,19 @@
         <v>28291</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>20086</v>
+        <v>20818</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>37475</v>
+        <v>39666</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04035391275237914</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02865033402305494</v>
+        <v>0.02969448725789549</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05345355144906715</v>
+        <v>0.05657788289782097</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>115</v>
@@ -9892,19 +9892,19 @@
         <v>125322</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>102645</v>
+        <v>103169</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>153753</v>
+        <v>153803</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.07559537458296479</v>
+        <v>0.07559537458296478</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06191640819297224</v>
+        <v>0.06223243117073352</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09274513871661733</v>
+        <v>0.09277531831343767</v>
       </c>
     </row>
     <row r="32">
@@ -9921,19 +9921,19 @@
         <v>31610</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>20750</v>
+        <v>21060</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>48361</v>
+        <v>47829</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03303995552162584</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02168906737293024</v>
+        <v>0.02201280219178388</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05054898365556534</v>
+        <v>0.04999250295378507</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>35</v>
@@ -9942,19 +9942,19 @@
         <v>30129</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>21127</v>
+        <v>21136</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>42360</v>
+        <v>42359</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.04297540190580782</v>
+        <v>0.04297540190580781</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03013417371752655</v>
+        <v>0.03014821836270978</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06042073902428147</v>
+        <v>0.06041929404381199</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>60</v>
@@ -9963,19 +9963,19 @@
         <v>61739</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>47543</v>
+        <v>47804</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>81117</v>
+        <v>83442</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03724164677505962</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02867861784092937</v>
+        <v>0.02883605855907199</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04893057166354359</v>
+        <v>0.0503327583906875</v>
       </c>
     </row>
     <row r="33">
